--- a/게임 플레이 목록_240412.xlsx
+++ b/게임 플레이 목록_240412.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF11AD4D-618D-4980-BF20-B08009F13C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA3FF4-2A5E-4118-A118-D7CA7D69F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="12576" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
   <sheets>
     <sheet name="게임 플레이 목록" sheetId="1" r:id="rId1"/>
@@ -1742,13 +1742,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(시너지 삭제 패치 이전)
+(장점)
+1. 2D 벨트스크롤 RPG로 간단한 조작과 화려한 도트 그래픽, 개성적인 장비 옵션
+2. 매 시즌 장비 소프트 리셋 및 이벤트로 이전 시즌 장비 지급해 신규 유저 진입이 쉬움
+(단점)
+1. 재화를 소모해 입장한 던전에서 낮은 확률로 해당 시즌 장비(에픽 아이템)를 획득하는 방식, 운이 좋으면 장비를 금방 맞추지만 아닌 경우 최종 장비 맞추는데 기약이 없음
+2. 레이드를 가기 위해 기본적으로 버스(쩔)를 받아 빠르게 입장하는 방식이 반필수화
+---
+시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔로 플레이 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어에 유불리 존재</t>
+  </si>
+  <si>
+    <t>2024.04.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(장점)
-1. 캐릭터, 장비 셋팅에 따라 다양한 조작감
-- 방어구에서 출혈/중독/감전 등 상변 셋팅(데미지형 상태이상)과 수면/아칸 등 비상변 셋팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭의 단점을 보완해주는 결전 같이 다양한 셋팅에 따라 같은 캐릭임에도 조작감이 다름
-- 물리/마법/하이브리드 형 및 외전 포함한 67개의 직업과 직업에서도 어떤 스킬을 주력으로 사용하느냐에 따라 플레이 감각이 다양한 플레이 감각을 느낄 수 있음
+1. 캐릭터, 장비 세팅에 따라 다양한 조작감
+- 방어구에서 출혈/중독/감전 등 상변 세팅(데미지형 상태이상)과 수면/아칸 등 비상변 세팅, 무기에서 스킬 데미지가 증가하는 근원과 캐릭터의 단점을 보완해 주는 결전같이 다양한 세팅에 따라 같은 캐릭터임에도 조작감이 다름
+- 물리/마법/하이브리드형 및 외전 포함한 67개의 직업과 직업에서도 어떤 스킬을 주력으로 사용하느냐에 따라 플레이 감각이 다양한 플레이 감각을 느낄 수 있음
 2. 신규/복귀 유저 지원 및 육성 이벤트로 쉬운 진입
-- 신규 캐릭터 출시 육성 이벤트로 인기 에픽 장비 기본 지급(출혈 셋팅) 및 현 시즌 최종 장비(딥 다이버 마스크)를 직접 제작하게 만듦으로써 신규 캐릭터의 재미를 빠르게 느끼도록 설계
-- 신규/복귀 유저가 쉽게 적응하도록 기본적인 셋팅(탈리스만, 스위칭)을 무료로 지원하고 빠르게 최종 레이드에 진입하도록 돕는 신규 유저용 패키지를 판매하는 등 BM과도 연계 
+- 신규 캐릭터 출시 육성 이벤트로 인기 에픽 장비 기본 지급(출혈 세팅) 및 현 시즌 최종 장비(딥 다이버 마스크)를 직접 제작하게 만듦으로써 신규 캐릭터의 재미를 빠르게 느끼도록 설계
+- 신규/복귀 유저가 쉽게 적응하도록 기본적인 세팅(탈리스만, 스위칭)을 무료로 지원하고 빠르게 최종 레이드에 진입하도록 돕는 신규 유저용 패키지를 판매하는 등 BM과도 연계 
 3. 다양한 플레이 편의성 존재
 1) 플레이 편의성
 - 스토리 진행 중 에픽 장비가 지급 및 드랍되어 던전 클리어 난이도 하락
@@ -1770,21 +1785,6 @@
 → 인게임 밸런스 유지에 도움, 신규/복귀 유저의 경우 제한된 인게임 재화 생산량으로 과금을 하거나 반강제 서브 캐릭터 육성
 2. 육성 지원 이벤트 없이 키울 시 높은 육성 피로도 존재
 - 스토리 구간 간소화했음에도 다년간 서비스로 인한 긴 스토리로, 서브 캐릭터 육성 시 이미 본 스토리를 재반복하느라 높은 피로도 존재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(시너지 삭제 패치 이전)
-(장점)
-1. 2D 벨트스크롤 RPG로 간단한 조작과 화려한 도트 그래픽, 개성적인 장비 옵션
-2. 매 시즌 장비 소프트 리셋 및 이벤트로 이전 시즌 장비 지급해 신규 유저 진입이 쉬움
-(단점)
-1. 재화를 소모해 입장한 던전에서 낮은 확률로 해당 시즌 장비(에픽 아이템)를 획득하는 방식, 운이 좋으면 장비를 금방 맞추지만 아닌 경우 최종 장비 맞추는데 기약이 없음
-2. 레이드를 가기 위해 기본적으로 버스(쩔)를 받아 빠르게 입장하는 방식이 반필수화
----
-시너지 딜러 및 버퍼의 경우 퓨어 딜러보다 레이드 파티 입장에 유리하지만, 솔로 플레이 콘텐츠에서 퓨어 딜러보다 콘텐츠 클리어에 유불리 존재</t>
-  </si>
-  <si>
-    <t>2024.04.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2252,6 +2252,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2261,15 +2279,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2296,15 +2305,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2689,8 +2689,8 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="8" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
@@ -2741,7 +2741,7 @@
         <v>65</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K2" s="30"/>
     </row>
@@ -2866,10 +2866,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2895,8 +2895,8 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2920,8 +2920,8 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2945,8 +2945,8 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2970,8 +2970,8 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="56"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2992,65 +2992,65 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43">
+      <c r="A14" s="40">
         <v>6</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="55" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="J14" s="40" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="15" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="56"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3126,8 +3126,8 @@
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="55" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3153,8 +3153,8 @@
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3262,8 +3262,8 @@
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="56"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3287,8 +3287,8 @@
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3315,8 +3315,8 @@
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3345,8 +3345,8 @@
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3487,8 +3487,8 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="42" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3515,7 +3515,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3552,10 +3552,10 @@
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="42" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3584,8 +3584,8 @@
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="56"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="56"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="56"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3665,8 +3665,8 @@
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="56"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3693,8 +3693,8 @@
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3718,8 +3718,8 @@
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="56"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3746,8 +3746,8 @@
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="56"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3774,8 +3774,8 @@
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="55" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3804,8 +3804,8 @@
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="56"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3829,8 +3829,8 @@
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="56"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3884,8 +3884,8 @@
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="55" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="42" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3914,8 +3914,8 @@
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="44"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="44"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="44"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="44"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4056,8 +4056,8 @@
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="42" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4086,8 +4086,8 @@
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="56"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4114,8 +4114,8 @@
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="42" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4141,8 +4141,8 @@
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="44"/>
-      <c r="C57" s="56"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="57"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4204,10 +4204,10 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4236,8 +4236,8 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="56"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="56"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4292,8 +4292,8 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="41"/>
+      <c r="C63" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4322,8 +4322,8 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="56"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4350,8 +4350,8 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="57"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="44"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4406,6 +4406,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4422,14 +4430,6 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/게임 플레이 목록_240412.xlsx
+++ b/게임 플레이 목록_240412.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA3FF4-2A5E-4118-A118-D7CA7D69F202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C0AEED-D568-454F-A1AC-D4C8AA6C9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8485B22B-FAE5-4015-8A8F-C4337D68386A}"/>
   </bookViews>
@@ -1772,13 +1772,13 @@
 2) 이동 편의성
 - 세리아방 바로 가기 버튼, 맵 이동 포탈 버튼으로 이동 동선 간소화
 3) 인게임 가이드 퀘스트
-- 가이드 퀘스트 및 110레벨 달성 시 스펙업과 던전 가이드 관련 미션 시스템을 제공해 보상 및 시스템에 익숙해지도록 설계 
+- 가이드 퀘스트 및 110레벨 달성 시 스펙업과 던전 가이드 관련 미션 시스템을 제공해 보상 및 시스템에 익숙해지도록 설계
 4. 다양한 육성 요소로 챙긴 저점과 고점 
 1) 확정 스펙업
 - 경계의 파편을 통한 장비 레벨 상승, 마법 부여 시스템을 통해 장비에 추가 스텟, 레이드 클리어 시 얻을 수 있는 융합 에픽을 합성해 높은 수치의 옵션을 획득, 그 외에도 크리쳐/칭호/아바타/탈리스만 등 육성 저점을 보장하는 요소 존재
 2) 확률 스펙업
 - 강화 수치 감소 장비 파괴 등을 감수하고 확률로 올릴 수 있는 강화/재련/증폭과 커스텀 에픽 장비의 옵션을 확률로 교체할 수 있는 커스텀 에픽 옵션 등 육성 고점 요소 존재
-// 커스텀 옵션 시스템은 뽑기 상한선(천(장점) 예정
+// 커스텀 옵션 시스템은 뽑기 상한선(천장) 예정
 (단점)
 1. 육성에 필요한 인게임 재화 획득이 어려움
 - 피로도 시스템으로 한 캐릭터가 얻을 수 있는 최대 인게임 재화량이 정해져 있어, 서브 캐릭터를 양산하지 않는 이상 육성에 필요한 인게임 재화 획득이 어려움
@@ -2252,12 +2252,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,45 +2305,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2866,10 +2866,10 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2895,8 +2895,8 @@
       <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
@@ -2920,8 +2920,8 @@
       <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
@@ -2945,8 +2945,8 @@
       <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2970,8 +2970,8 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="17" t="s">
         <v>42</v>
       </c>
@@ -2992,65 +2992,65 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40">
+      <c r="A14" s="43">
         <v>6</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="40" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:11" ht="400.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="17" t="s">
         <v>29</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="17" t="s">
         <v>17</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="17" t="s">
         <v>0</v>
       </c>
@@ -3126,8 +3126,8 @@
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -3153,8 +3153,8 @@
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="17" t="s">
         <v>6</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="19" t="s">
         <v>18</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
@@ -3235,8 +3235,8 @@
       <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -3262,8 +3262,8 @@
       <c r="A25" s="16">
         <v>15</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="17" t="s">
         <v>45</v>
       </c>
@@ -3287,8 +3287,8 @@
       <c r="A26" s="16">
         <v>16</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="17" t="s">
         <v>36</v>
       </c>
@@ -3315,8 +3315,8 @@
       <c r="A27" s="16">
         <v>17</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="55" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3345,8 +3345,8 @@
       <c r="A28" s="16">
         <v>18</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="A29" s="16">
         <v>19</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="17" t="s">
         <v>68</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="A30" s="16">
         <v>20</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="17" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3430,7 @@
       <c r="A31" s="16">
         <v>21</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="17" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="A32" s="16">
         <v>22</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="21" t="s">
         <v>19</v>
       </c>
@@ -3487,8 +3487,8 @@
       <c r="A33" s="16">
         <v>23</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -3515,7 +3515,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="17" t="s">
         <v>28</v>
       </c>
@@ -3552,10 +3552,10 @@
       <c r="A36" s="16">
         <v>25</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -3584,8 +3584,8 @@
       <c r="A37" s="16">
         <v>26</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
@@ -3609,8 +3609,8 @@
       <c r="A38" s="16">
         <v>27</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="17" t="s">
         <v>223</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="A39" s="16">
         <v>28</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="17" t="s">
         <v>33</v>
       </c>
@@ -3665,8 +3665,8 @@
       <c r="A40" s="16">
         <v>29</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="17" t="s">
         <v>110</v>
       </c>
@@ -3693,8 +3693,8 @@
       <c r="A41" s="16">
         <v>30</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="17" t="s">
         <v>32</v>
       </c>
@@ -3718,8 +3718,8 @@
       <c r="A42" s="16">
         <v>31</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="17" t="s">
         <v>22</v>
       </c>
@@ -3746,8 +3746,8 @@
       <c r="A43" s="16">
         <v>32</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="17" t="s">
         <v>57</v>
       </c>
@@ -3774,8 +3774,8 @@
       <c r="A44" s="16">
         <v>33</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3804,8 +3804,8 @@
       <c r="A45" s="16">
         <v>34</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3829,8 +3829,8 @@
       <c r="A46" s="16">
         <v>35</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="17" t="s">
         <v>224</v>
       </c>
@@ -3857,7 +3857,7 @@
       <c r="A47" s="16">
         <v>36</v>
       </c>
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="20" t="s">
         <v>9</v>
       </c>
@@ -3884,8 +3884,8 @@
       <c r="A48" s="16">
         <v>37</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42" t="s">
+      <c r="B48" s="44"/>
+      <c r="C48" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -3914,8 +3914,8 @@
       <c r="A49" s="16">
         <v>38</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="17" t="s">
         <v>35</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="A50" s="16">
         <v>39</v>
       </c>
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +3972,7 @@
       <c r="A51" s="16">
         <v>40</v>
       </c>
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="17" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="A52" s="16">
         <v>41</v>
       </c>
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="17" t="s">
         <v>43</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="A53" s="16">
         <v>42</v>
       </c>
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="21" t="s">
         <v>24</v>
       </c>
@@ -4056,8 +4056,8 @@
       <c r="A54" s="16">
         <v>43</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4086,8 +4086,8 @@
       <c r="A55" s="16">
         <v>44</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="17" t="s">
         <v>63</v>
       </c>
@@ -4114,8 +4114,8 @@
       <c r="A56" s="16">
         <v>45</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="44"/>
+      <c r="C56" s="55" t="s">
         <v>74</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4141,8 +4141,8 @@
       <c r="A57" s="16">
         <v>46</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="17" t="s">
         <v>48</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="45"/>
-      <c r="C58" s="44"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="17" t="s">
         <v>49</v>
       </c>
@@ -4204,10 +4204,10 @@
       <c r="A60" s="16">
         <v>48</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -4236,8 +4236,8 @@
       <c r="A61" s="16">
         <v>49</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="17" t="s">
         <v>105</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="A62" s="16">
         <v>50</v>
       </c>
-      <c r="B62" s="41"/>
-      <c r="C62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="17" t="s">
         <v>109</v>
       </c>
@@ -4292,8 +4292,8 @@
       <c r="A63" s="16">
         <v>51</v>
       </c>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42" t="s">
+      <c r="B63" s="44"/>
+      <c r="C63" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4322,8 +4322,8 @@
       <c r="A64" s="16">
         <v>52</v>
       </c>
-      <c r="B64" s="41"/>
-      <c r="C64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="17" t="s">
         <v>107</v>
       </c>
@@ -4350,8 +4350,8 @@
       <c r="A65" s="16">
         <v>53</v>
       </c>
-      <c r="B65" s="41"/>
-      <c r="C65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="17" t="s">
         <v>108</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="A66" s="16">
         <v>54</v>
       </c>
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="17" t="s">
         <v>37</v>
       </c>
@@ -4406,14 +4406,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
     <mergeCell ref="B60:B66"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="C24:C26"/>
@@ -4430,6 +4422,14 @@
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C9:C13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
